--- a/python/lin/pert SD t1=6 t2=5.5.xlsx
+++ b/python/lin/pert SD t1=6 t2=5.5.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.16e-06</t>
+          <t>0.0895</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.98e+00</t>
+          <t>5.86e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.101</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.50e+00</t>
+          <t>5.64e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.45e-05</t>
+          <t>0.306</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.41e+00</t>
+          <t>5.65e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>0.345</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.50e+00</t>
+          <t>3.00e+00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.50e+00</t>
+          <t>3.10e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.41e-05</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.44e+00</t>
+          <t>3.07e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.282</t>
+          <t>0.183</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.98e-10</t>
+          <t>2.18e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94e-06</t>
+          <t>2.46e-06</t>
         </is>
       </c>
     </row>
